--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Ticker</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>BDB:IM</t>
+  </si>
+  <si>
+    <t>BKIR:ID</t>
   </si>
   <si>
     <t>BKT:SM</t>
@@ -494,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +539,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4046963962189877</v>
+        <v>-0.4208693914176447</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -556,7 +559,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.319291350867774</v>
+        <v>-0.3306653590812864</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -576,7 +579,7 @@
         <v>14.48647374749499</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2387081612112311</v>
+        <v>-0.2470221401140533</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -596,7 +599,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2557905568789887</v>
+        <v>-0.2658495376346844</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -616,7 +619,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2917639851347422</v>
+        <v>-0.3026574237765779</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -636,7 +639,7 @@
         <v>13.88146114398422</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2106338251962522</v>
+        <v>-0.2181806080767618</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -647,16 +650,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3487546661771005</v>
+        <v>-0.6791896751678423</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05038811504373077</v>
+        <v>-0.06233981755815</v>
       </c>
       <c r="E8" t="n">
-        <v>27.91789389763779</v>
+        <v>29.48630905511811</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3393285573143446</v>
+        <v>-0.3968626905981891</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -667,16 +670,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1672447013487475</v>
+        <v>-0.3487546661771005</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02860565235057473</v>
+        <v>-0.05038811504373077</v>
       </c>
       <c r="E9" t="n">
-        <v>12.73460813492063</v>
+        <v>27.91789389763779</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1695436894024105</v>
+        <v>-0.3525511274457859</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -687,16 +690,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5398336006948559</v>
+        <v>0.1672447013487475</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04011728344260769</v>
+        <v>-0.02860565235057473</v>
       </c>
       <c r="E10" t="n">
-        <v>19.97154339250493</v>
+        <v>12.73460813492063</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2534349248771424</v>
+        <v>-0.1759174945987986</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -707,16 +710,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2789418618328597</v>
+        <v>-0.5398336006948559</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04319165870533847</v>
+        <v>-0.04011728344260769</v>
       </c>
       <c r="E11" t="n">
-        <v>34.26655333333333</v>
+        <v>19.97154339250493</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3675090263388146</v>
+        <v>-0.2631418974831486</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -727,16 +730,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01640512178684902</v>
+        <v>-0.2789418618328597</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.052083781835932</v>
+        <v>-0.04319165870533847</v>
       </c>
       <c r="E12" t="n">
-        <v>15.8624265060241</v>
+        <v>34.26655333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2543865133338647</v>
+        <v>-0.3826022029936484</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -747,16 +750,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3447519083969466</v>
+        <v>-0.01640512178684902</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03154518652330769</v>
+        <v>-0.052083781835932</v>
       </c>
       <c r="E13" t="n">
-        <v>16.07739842209073</v>
+        <v>15.8624265060241</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2020500535833909</v>
+        <v>-0.2633279193926145</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -767,16 +770,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6089360849529153</v>
+        <v>-0.3447519083969466</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04908201096195001</v>
+        <v>-0.03154518652330769</v>
       </c>
       <c r="E14" t="n">
-        <v>8.846112423625254</v>
+        <v>16.07739842209073</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1944765550716405</v>
+        <v>-0.2098186426337142</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -787,16 +790,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1684010353388623</v>
+        <v>-0.6089360849529153</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05903868759056</v>
+        <v>-0.04908201096195001</v>
       </c>
       <c r="E15" t="n">
-        <v>14.93403968253968</v>
+        <v>8.846112423625254</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2657645641395539</v>
+        <v>-0.2006833645005624</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -807,16 +810,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4293901824896285</v>
+        <v>0.1684010353388623</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05528558941107693</v>
+        <v>-0.05903868759056</v>
       </c>
       <c r="E16" t="n">
-        <v>42.29407120315582</v>
+        <v>14.93403968253968</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4587916561926891</v>
+        <v>-0.2747919470207686</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -827,16 +830,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.457064447592068</v>
+        <v>-0.4293901824896285</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03886847401834231</v>
+        <v>-0.05528558941107693</v>
       </c>
       <c r="E17" t="n">
-        <v>18.42660788954635</v>
+        <v>42.29407120315582</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2386996689702751</v>
+        <v>-0.4775409945404821</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -847,16 +850,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1757575757575758</v>
+        <v>-0.457064447592068</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04804690751491537</v>
+        <v>-0.03886847401834231</v>
       </c>
       <c r="E18" t="n">
-        <v>13.61614358974359</v>
+        <v>18.42660788954635</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2271296364341052</v>
+        <v>-0.2477687001588732</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -867,16 +870,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3691170216246278</v>
+        <v>-0.1757575757575758</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04221730395961538</v>
+        <v>-0.04804690751491537</v>
       </c>
       <c r="E19" t="n">
-        <v>9.213624654832346</v>
+        <v>13.61614358974359</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1791763126952221</v>
+        <v>-0.2350082081554801</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -887,16 +890,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3825865492532159</v>
+        <v>-0.3691170216246278</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02958070888399616</v>
+        <v>-0.04221730395961538</v>
       </c>
       <c r="E20" t="n">
-        <v>13.5694157790927</v>
+        <v>9.213624654832346</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1782943310350295</v>
+        <v>-0.1850986550937975</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -907,16 +910,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5260390348410861</v>
+        <v>-0.3825865492532159</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06208038295445</v>
+        <v>-0.02958070888399616</v>
       </c>
       <c r="E21" t="n">
-        <v>39.63771828455796</v>
+        <v>13.5694157790927</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4569359463387399</v>
+        <v>-0.1850311374065083</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -927,16 +930,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3503506768879466</v>
+        <v>-0.5260390348410861</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0503511423165</v>
+        <v>-0.06208038295445</v>
       </c>
       <c r="E22" t="n">
-        <v>38.92190276134122</v>
+        <v>39.63771828455796</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4208291744325385</v>
+        <v>-0.4751330660302309</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -947,16 +950,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2202009922401731</v>
+        <v>-0.3503506768879466</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.051493980633772</v>
+        <v>-0.0503511423165</v>
       </c>
       <c r="E23" t="n">
-        <v>23.33259424603175</v>
+        <v>38.92190276134122</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3082311183115491</v>
+        <v>-0.4380515348186808</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -967,16 +970,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08550631914637082</v>
+        <v>-0.2202009922401731</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.04947639769688</v>
+        <v>-0.051493980633772</v>
       </c>
       <c r="E24" t="n">
-        <v>10.93213446893787</v>
+        <v>23.33259424603175</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2109805587656732</v>
+        <v>-0.319853421160968</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -987,16 +990,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3754081282742845</v>
+        <v>-0.08550631914637082</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.045510053230136</v>
+        <v>-0.04947639769688</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08165090180361</v>
+        <v>10.93213446893787</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2313354614182444</v>
+        <v>-0.217970054450414</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1007,16 +1010,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.07148240024267519</v>
+        <v>-0.3754081282742845</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.055171201718824</v>
+        <v>-0.045510053230136</v>
       </c>
       <c r="E26" t="n">
-        <v>16.92904969818914</v>
+        <v>15.08165090180361</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2704028035430082</v>
+        <v>-0.2395925036536279</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1027,16 +1030,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2617664148750727</v>
+        <v>-0.07148240024267519</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03640085456890769</v>
+        <v>-0.055171201718824</v>
       </c>
       <c r="E27" t="n">
-        <v>12.43035917159763</v>
+        <v>16.92904969818914</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1877563535375039</v>
+        <v>-0.2799201831070617</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1047,16 +1050,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2616666666666666</v>
+        <v>-0.2617664148750727</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.04727612466906154</v>
+        <v>-0.03640085456890769</v>
       </c>
       <c r="E28" t="n">
-        <v>19.97535638506876</v>
+        <v>12.43035917159763</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2722609859885034</v>
+        <v>-0.1944943101496724</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1067,16 +1070,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4144455058083997</v>
+        <v>-0.2616666666666666</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01262875871033885</v>
+        <v>-0.04727612466906154</v>
       </c>
       <c r="E29" t="n">
-        <v>16.13301785714286</v>
+        <v>19.97535638506876</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1527914625140697</v>
+        <v>-0.2824053883345302</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1087,16 +1090,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5906478827640712</v>
+        <v>0.4144455058083997</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03545287172016538</v>
+        <v>-0.01262875871033885</v>
       </c>
       <c r="E30" t="n">
-        <v>14.83600986193294</v>
+        <v>16.13301785714286</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2031056769695623</v>
+        <v>-0.1594280854988233</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1107,16 +1110,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3843651519772288</v>
+        <v>-0.5906478827640712</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0430877571429923</v>
+        <v>-0.03545287172016538</v>
       </c>
       <c r="E31" t="n">
-        <v>12.56693530571992</v>
+        <v>14.83600986193294</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2063276660344341</v>
+        <v>-0.2106608020612553</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1127,16 +1130,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4292578137811157</v>
+        <v>-0.3843651519772288</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.04622575925456154</v>
+        <v>-0.0430877571429923</v>
       </c>
       <c r="E32" t="n">
-        <v>16.53771377952756</v>
+        <v>12.56693530571992</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2440118723205852</v>
+        <v>-0.2135225912945753</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1147,16 +1150,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1089534213487773</v>
+        <v>-0.4292578137811157</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.054982670884064</v>
+        <v>-0.04622575925456154</v>
       </c>
       <c r="E33" t="n">
-        <v>14.10949126984127</v>
+        <v>16.53771377952756</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2489999685989908</v>
+        <v>-0.2528420627572533</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1167,16 +1170,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2582737813291595</v>
+        <v>-0.1089534213487773</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03148653541553462</v>
+        <v>-0.054982670884064</v>
       </c>
       <c r="E34" t="n">
-        <v>17.10704960629921</v>
+        <v>14.10949126984127</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2095311885678563</v>
+        <v>-0.2574804210667525</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1187,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1365553772352162</v>
+        <v>-0.2582737813291595</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.03742078764713076</v>
+        <v>-0.03148653541553462</v>
       </c>
       <c r="E35" t="n">
-        <v>18.41175196850393</v>
+        <v>17.10704960629921</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2347881529107336</v>
+        <v>-0.2176706784987617</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1207,16 +1210,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2412191692085671</v>
+        <v>-0.1365553772352162</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.03742078764713076</v>
       </c>
       <c r="E36" t="n">
-        <v>15.13503587174349</v>
+        <v>18.41175196850393</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2278873284805836</v>
+        <v>-0.2437636029896476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1227,16 +1230,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1895873807997258</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E37" t="n">
-        <v>18.75787054108217</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2654389064702328</v>
+        <v>-0.2360746189657494</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1247,16 +1250,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.1895873807997258</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.04811620969233601</v>
       </c>
       <c r="E38" t="n">
-        <v>21.61644440078586</v>
+        <v>18.75787054108217</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2995871361064076</v>
+        <v>-0.2751916913649025</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1267,16 +1270,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.0866875906245986</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.05304844434981852</v>
       </c>
       <c r="E39" t="n">
-        <v>11.23250946745562</v>
+        <v>21.61644440078586</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1622163177323679</v>
+        <v>-0.310679975257708</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1287,16 +1290,36 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1681322295631649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E41" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F40" t="n">
-        <v>-0.2617945641546031</v>
+      <c r="F41" t="n">
+        <v>-0.2718016054757492</v>
       </c>
     </row>
   </sheetData>

--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>ALBAV:FH</t>
+  </si>
+  <si>
+    <t>ALBK:ID</t>
   </si>
   <si>
     <t>ALPHA:GA</t>
@@ -497,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +542,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4208693914176447</v>
+        <v>-0.4344735956467838</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -559,7 +562,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3306653590812864</v>
+        <v>-0.3379025588193632</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -570,16 +573,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2998083660765751</v>
+        <v>-0.6256358952872177</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04999860364879999</v>
+        <v>-0.05895990527271154</v>
       </c>
       <c r="E4" t="n">
-        <v>14.48647374749499</v>
+        <v>29.48630905511811</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2470221401140533</v>
+        <v>-0.3987977877978099</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -590,16 +593,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3976647119097377</v>
+        <v>-0.2998083660765751</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0366333753676077</v>
+        <v>-0.04999860364879999</v>
       </c>
       <c r="E5" t="n">
-        <v>21.52289980392157</v>
+        <v>14.48647374749499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2658495376346844</v>
+        <v>-0.2519549315069459</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -610,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4580244149064585</v>
+        <v>-0.3976647119097377</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05033328934189615</v>
+        <v>-0.0366333753676077</v>
       </c>
       <c r="E6" t="n">
         <v>21.52289980392157</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3026574237765779</v>
+        <v>-0.2740363471636351</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -630,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2633966543804932</v>
+        <v>-0.4580244149064585</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04101548357255769</v>
+        <v>-0.05033328934189615</v>
       </c>
       <c r="E7" t="n">
-        <v>13.88146114398422</v>
+        <v>21.52289980392157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2181806080767618</v>
+        <v>-0.3105320183862717</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -650,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6791896751678423</v>
+        <v>-0.2633966543804932</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06233981755815</v>
+        <v>-0.04101548357255769</v>
       </c>
       <c r="E8" t="n">
-        <v>29.48630905511811</v>
+        <v>13.88146114398422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3968626905981891</v>
+        <v>-0.2230645200510353</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -670,16 +673,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3487546661771005</v>
+        <v>-0.6791896751678423</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05038811504373077</v>
+        <v>-0.06233981755815</v>
       </c>
       <c r="E9" t="n">
-        <v>27.91789389763779</v>
+        <v>29.48630905511811</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3525511274457859</v>
+        <v>-0.4078016521842737</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -690,16 +693,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1672447013487475</v>
+        <v>-0.3487546661771005</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02860565235057473</v>
+        <v>-0.05038811504373077</v>
       </c>
       <c r="E10" t="n">
-        <v>12.73460813492063</v>
+        <v>27.91789389763779</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1759174945987986</v>
+        <v>-0.3631050366873015</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -710,16 +713,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5398336006948559</v>
+        <v>0.1672447013487475</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04011728344260769</v>
+        <v>-0.02860565235057473</v>
       </c>
       <c r="E11" t="n">
-        <v>19.97154339250493</v>
+        <v>12.73460813492063</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2631418974831486</v>
+        <v>-0.1806034992959827</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -730,16 +733,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2789418618328597</v>
+        <v>-0.5398336006948559</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04319165870533847</v>
+        <v>-0.04011728344260769</v>
       </c>
       <c r="E12" t="n">
-        <v>34.26655333333333</v>
+        <v>19.97154339250493</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3826022029936484</v>
+        <v>-0.2705990344441372</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -750,16 +753,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01640512178684902</v>
+        <v>-0.2789418618328597</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.052083781835932</v>
+        <v>-0.04319165870533847</v>
       </c>
       <c r="E13" t="n">
-        <v>15.8624265060241</v>
+        <v>34.26655333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2633279193926145</v>
+        <v>-0.3959812584320912</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -770,16 +773,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3447519083969466</v>
+        <v>-0.01640512178684902</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03154518652330769</v>
+        <v>-0.052083781835932</v>
       </c>
       <c r="E14" t="n">
-        <v>16.07739842209073</v>
+        <v>15.8624265060241</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2098186426337142</v>
+        <v>-0.2687899431181417</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -790,16 +793,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6089360849529153</v>
+        <v>-0.3447519083969466</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04908201096195001</v>
+        <v>-0.03154518652330769</v>
       </c>
       <c r="E15" t="n">
-        <v>8.846112423625254</v>
+        <v>16.07739842209073</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2006833645005624</v>
+        <v>-0.2158388406889879</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -810,16 +813,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1684010353388623</v>
+        <v>-0.6089360849529153</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05903868759056</v>
+        <v>-0.04908201096195001</v>
       </c>
       <c r="E16" t="n">
-        <v>14.93403968253968</v>
+        <v>8.846112423625254</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2747919470207686</v>
+        <v>-0.2032727969447595</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -830,16 +833,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4293901824896285</v>
+        <v>0.1684010353388623</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05528558941107693</v>
+        <v>-0.05903868759056</v>
       </c>
       <c r="E17" t="n">
-        <v>42.29407120315582</v>
+        <v>14.93403968253968</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4775409945404821</v>
+        <v>-0.2797063233612255</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -850,16 +853,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.457064447592068</v>
+        <v>-0.4293901824896285</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03886847401834231</v>
+        <v>-0.05528558941107693</v>
       </c>
       <c r="E18" t="n">
-        <v>18.42660788954635</v>
+        <v>42.29407120315582</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2477687001588732</v>
+        <v>-0.4940092972447686</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -870,16 +873,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1757575757575758</v>
+        <v>-0.457064447592068</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04804690751491537</v>
+        <v>-0.03886847401834231</v>
       </c>
       <c r="E19" t="n">
-        <v>13.61614358974359</v>
+        <v>18.42660788954635</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2350082081554801</v>
+        <v>-0.2546067124959477</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -890,16 +893,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3691170216246278</v>
+        <v>-0.1757575757575758</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04221730395961538</v>
+        <v>-0.04804690751491537</v>
       </c>
       <c r="E20" t="n">
-        <v>9.213624654832346</v>
+        <v>13.61614358974359</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1850986550937975</v>
+        <v>-0.2396206650217247</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -910,16 +913,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3825865492532159</v>
+        <v>-0.3691170216246278</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02958070888399616</v>
+        <v>-0.04221730395961538</v>
       </c>
       <c r="E21" t="n">
-        <v>13.5694157790927</v>
+        <v>9.213624654832346</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1850311374065083</v>
+        <v>-0.1879985797752566</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -930,16 +933,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5260390348410861</v>
+        <v>-0.3825865492532159</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.06208038295445</v>
+        <v>-0.02958070888399616</v>
       </c>
       <c r="E22" t="n">
-        <v>39.63771828455796</v>
+        <v>13.5694157790927</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4751330660302309</v>
+        <v>-0.1900448439806611</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -950,16 +953,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3503506768879466</v>
+        <v>-0.5260390348410861</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0503511423165</v>
+        <v>-0.06208038295445</v>
       </c>
       <c r="E23" t="n">
-        <v>38.92190276134122</v>
+        <v>39.63771828455796</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4380515348186808</v>
+        <v>-0.4903330656014788</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -970,16 +973,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2202009922401731</v>
+        <v>-0.3503506768879466</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.051493980633772</v>
+        <v>-0.0503511423165</v>
       </c>
       <c r="E24" t="n">
-        <v>23.33259424603175</v>
+        <v>38.92190276134122</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.319853421160968</v>
+        <v>-0.4532187930156437</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -990,16 +993,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.08550631914637082</v>
+        <v>-0.2202009922401731</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.04947639769688</v>
+        <v>-0.051493980633772</v>
       </c>
       <c r="E25" t="n">
-        <v>10.93213446893787</v>
+        <v>23.33259424603175</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.217970054450414</v>
+        <v>-0.3284601265125547</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1010,16 +1013,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3754081282742845</v>
+        <v>-0.08550631914637082</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.045510053230136</v>
+        <v>-0.04947639769688</v>
       </c>
       <c r="E26" t="n">
-        <v>15.08165090180361</v>
+        <v>10.93213446893787</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2395925036536279</v>
+        <v>-0.2214248885107483</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1030,16 +1033,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.07148240024267519</v>
+        <v>-0.3754081282742845</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.055171201718824</v>
+        <v>-0.045510053230136</v>
       </c>
       <c r="E27" t="n">
-        <v>16.92904969818914</v>
+        <v>15.08165090180361</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2799201831070617</v>
+        <v>-0.2448770651315794</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1050,16 +1053,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2617664148750727</v>
+        <v>-0.07148240024267519</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03640085456890769</v>
+        <v>-0.055171201718824</v>
       </c>
       <c r="E28" t="n">
-        <v>12.43035917159763</v>
+        <v>16.92904969818914</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1944943101496724</v>
+        <v>-0.2857589380881437</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1070,16 +1073,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2616666666666666</v>
+        <v>-0.2617664148750727</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.04727612466906154</v>
+        <v>-0.03640085456890769</v>
       </c>
       <c r="E29" t="n">
-        <v>19.97535638506876</v>
+        <v>12.43035917159763</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2824053883345302</v>
+        <v>-0.1988751348501606</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1090,16 +1093,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4144455058083997</v>
+        <v>-0.2616666666666666</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01262875871033885</v>
+        <v>-0.04727612466906154</v>
       </c>
       <c r="E30" t="n">
-        <v>16.13301785714286</v>
+        <v>19.97535638506876</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1594280854988233</v>
+        <v>-0.2897009767789011</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1110,16 +1113,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5906478827640712</v>
+        <v>0.4144455058083997</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03545287172016538</v>
+        <v>-0.01262875871033885</v>
       </c>
       <c r="E31" t="n">
-        <v>14.83600986193294</v>
+        <v>16.13301785714286</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2106608020612553</v>
+        <v>-0.1659026942693763</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1130,16 +1133,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3843651519772288</v>
+        <v>-0.5906478827640712</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0430877571429923</v>
+        <v>-0.03545287172016538</v>
       </c>
       <c r="E32" t="n">
-        <v>12.56693530571992</v>
+        <v>14.83600986193294</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2135225912945753</v>
+        <v>-0.2160715978411697</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1150,16 +1153,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4292578137811157</v>
+        <v>-0.3843651519772288</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04622575925456154</v>
+        <v>-0.0430877571429923</v>
       </c>
       <c r="E33" t="n">
-        <v>16.53771377952756</v>
+        <v>12.56693530571992</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2528420627572533</v>
+        <v>-0.2178082725443054</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1170,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1089534213487773</v>
+        <v>-0.4292578137811157</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.054982670884064</v>
+        <v>-0.04622575925456154</v>
       </c>
       <c r="E34" t="n">
-        <v>14.10949126984127</v>
+        <v>16.53771377952756</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2574804210667525</v>
+        <v>-0.2587206456647448</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1190,16 +1193,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2582737813291595</v>
+        <v>-0.1089534213487773</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.03148653541553462</v>
+        <v>-0.054982670884064</v>
       </c>
       <c r="E35" t="n">
-        <v>17.10704960629921</v>
+        <v>14.10949126984127</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2176706784987617</v>
+        <v>-0.2621416095572205</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1210,16 +1213,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1365553772352162</v>
+        <v>-0.2582737813291595</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.03742078764713076</v>
+        <v>-0.03148653541553462</v>
       </c>
       <c r="E36" t="n">
-        <v>18.41175196850393</v>
+        <v>17.10704960629921</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2437636029896476</v>
+        <v>-0.2241238079533767</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1230,16 +1233,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2412191692085671</v>
+        <v>-0.1365553772352162</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.03742078764713076</v>
       </c>
       <c r="E37" t="n">
-        <v>15.13503587174349</v>
+        <v>18.41175196850393</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2360746189657494</v>
+        <v>-0.250628380355413</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1250,16 +1253,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1895873807997258</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E38" t="n">
-        <v>18.75787054108217</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2751916913649025</v>
+        <v>-0.2414149198212922</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1270,16 +1273,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.1895873807997258</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.04811620969233601</v>
       </c>
       <c r="E39" t="n">
-        <v>21.61644440078586</v>
+        <v>18.75787054108217</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.310679975257708</v>
+        <v>-0.2819578059773609</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1290,16 +1293,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.0866875906245986</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.05304844434981852</v>
       </c>
       <c r="E40" t="n">
-        <v>11.23250946745562</v>
+        <v>21.61644440078586</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1681322295631649</v>
+        <v>-0.3185319034120778</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1310,16 +1313,36 @@
         <v>44</v>
       </c>
       <c r="C41" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1721555289072896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E42" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F41" t="n">
-        <v>-0.2718016054757492</v>
+      <c r="F42" t="n">
+        <v>-0.2794539672978232</v>
       </c>
     </row>
   </sheetData>

--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Ticker</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ALPHA:GA</t>
+  </si>
+  <si>
+    <t>BARCL:LN</t>
   </si>
   <si>
     <t>BBVA:SM</t>
@@ -500,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +545,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4344735956467838</v>
+        <v>-0.4253208490489581</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -562,7 +565,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3379025588193632</v>
+        <v>-0.3398611103027184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -582,7 +585,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3987977877978099</v>
+        <v>-0.3943908129339996</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -602,7 +605,7 @@
         <v>14.48647374749499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2519549315069459</v>
+        <v>-0.2546739604819611</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -613,16 +616,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3976647119097377</v>
+        <v>-0.5228292550556857</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0366333753676077</v>
+        <v>-0.0572556629255077</v>
       </c>
       <c r="E6" t="n">
-        <v>21.52289980392157</v>
+        <v>53.60236401808765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2740363471636351</v>
+        <v>-0.5723588285358179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -633,16 +636,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4580244149064585</v>
+        <v>-0.3976647119097377</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05033328934189615</v>
+        <v>-0.0366333753676077</v>
       </c>
       <c r="E7" t="n">
         <v>21.52289980392157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3105320183862717</v>
+        <v>-0.2693325938881664</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -653,16 +656,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2633966543804932</v>
+        <v>-0.4580244149064585</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04101548357255769</v>
+        <v>-0.05033328934189615</v>
       </c>
       <c r="E8" t="n">
-        <v>13.88146114398422</v>
+        <v>21.52289980392157</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2230645200510353</v>
+        <v>-0.3090097405979922</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -673,16 +676,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6791896751678423</v>
+        <v>-0.2633966543804932</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06233981755815</v>
+        <v>-0.04101548357255769</v>
       </c>
       <c r="E9" t="n">
-        <v>29.48630905511811</v>
+        <v>13.88146114398422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4078016521842737</v>
+        <v>-0.2240687983192979</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -693,16 +696,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3487546661771005</v>
+        <v>-0.6791896751678423</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05038811504373077</v>
+        <v>-0.06233981755815</v>
       </c>
       <c r="E10" t="n">
-        <v>27.91789389763779</v>
+        <v>29.48630905511811</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3631050366873015</v>
+        <v>-0.4041795806494298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -713,16 +716,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1672447013487475</v>
+        <v>-0.3487546661771005</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02860565235057473</v>
+        <v>-0.05038811504373077</v>
       </c>
       <c r="E11" t="n">
-        <v>12.73460813492063</v>
+        <v>27.91789389763779</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1806034992959827</v>
+        <v>-0.3576701788092287</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -733,16 +736,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5398336006948559</v>
+        <v>0.1672447013487475</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04011728344260769</v>
+        <v>-0.02860565235057473</v>
       </c>
       <c r="E12" t="n">
-        <v>19.97154339250493</v>
+        <v>12.73460813492063</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2705990344441372</v>
+        <v>-0.179429842738872</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -753,16 +756,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2789418618328597</v>
+        <v>-0.5398336006948559</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04319165870533847</v>
+        <v>-0.04011728344260769</v>
       </c>
       <c r="E13" t="n">
-        <v>34.26655333333333</v>
+        <v>19.97154339250493</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3959812584320912</v>
+        <v>-0.2676565732707725</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -773,16 +776,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01640512178684902</v>
+        <v>-0.2789418618328597</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.052083781835932</v>
+        <v>-0.04319165870533847</v>
       </c>
       <c r="E14" t="n">
-        <v>15.8624265060241</v>
+        <v>34.26655333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2687899431181417</v>
+        <v>-0.384978325312021</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -793,16 +796,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3447519083969466</v>
+        <v>-0.01640512178684902</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03154518652330769</v>
+        <v>-0.052083781835932</v>
       </c>
       <c r="E15" t="n">
-        <v>16.07739842209073</v>
+        <v>15.8624265060241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2158388406889879</v>
+        <v>-0.2711486308542244</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -813,16 +816,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6089360849529153</v>
+        <v>-0.3447519083969466</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.04908201096195001</v>
+        <v>-0.03154518652330769</v>
       </c>
       <c r="E16" t="n">
-        <v>8.846112423625254</v>
+        <v>16.07739842209073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2032727969447595</v>
+        <v>-0.2132959817566448</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -833,16 +836,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1684010353388623</v>
+        <v>-0.6089360849529153</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05903868759056</v>
+        <v>-0.04908201096195001</v>
       </c>
       <c r="E17" t="n">
-        <v>14.93403968253968</v>
+        <v>8.846112423625254</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2797063233612255</v>
+        <v>-0.2092410801310597</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -853,16 +856,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4293901824896285</v>
+        <v>0.1684010353388623</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05528558941107693</v>
+        <v>-0.05903868759056</v>
       </c>
       <c r="E18" t="n">
-        <v>42.29407120315582</v>
+        <v>14.93403968253968</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4940092972447686</v>
+        <v>-0.2842499738877592</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -873,16 +876,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.457064447592068</v>
+        <v>-0.4293901824896285</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03886847401834231</v>
+        <v>-0.05528558941107693</v>
       </c>
       <c r="E19" t="n">
-        <v>18.42660788954635</v>
+        <v>42.29407120315582</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2546067124959477</v>
+        <v>-0.4808875169855926</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -893,16 +896,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1757575757575758</v>
+        <v>-0.457064447592068</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04804690751491537</v>
+        <v>-0.03886847401834231</v>
       </c>
       <c r="E20" t="n">
-        <v>13.61614358974359</v>
+        <v>18.42660788954635</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2396206650217247</v>
+        <v>-0.2523225424062133</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -913,16 +916,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3691170216246278</v>
+        <v>-0.1757575757575758</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04221730395961538</v>
+        <v>-0.04804690751491537</v>
       </c>
       <c r="E21" t="n">
-        <v>9.213624654832346</v>
+        <v>13.61614358974359</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1879985797752566</v>
+        <v>-0.2424206769666405</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -933,16 +936,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3825865492532159</v>
+        <v>-0.3691170216246278</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02958070888399616</v>
+        <v>-0.04221730395961538</v>
       </c>
       <c r="E22" t="n">
-        <v>13.5694157790927</v>
+        <v>9.213624654832346</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1900448439806611</v>
+        <v>-0.1921471171579633</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -953,16 +956,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5260390348410861</v>
+        <v>-0.3825865492532159</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06208038295445</v>
+        <v>-0.02958070888399616</v>
       </c>
       <c r="E23" t="n">
-        <v>39.63771828455796</v>
+        <v>13.5694157790927</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4903330656014788</v>
+        <v>-0.1885852074762532</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -973,16 +976,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3503506768879466</v>
+        <v>-0.5260390348410861</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0503511423165</v>
+        <v>-0.06208038295445</v>
       </c>
       <c r="E24" t="n">
-        <v>38.92190276134122</v>
+        <v>39.63771828455796</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4532187930156437</v>
+        <v>-0.4804197089851844</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -993,16 +996,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2202009922401731</v>
+        <v>-0.3503506768879466</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.051493980633772</v>
+        <v>-0.0503511423165</v>
       </c>
       <c r="E25" t="n">
-        <v>23.33259424603175</v>
+        <v>38.92190276134122</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3284601265125547</v>
+        <v>-0.4410209771989878</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1013,16 +1016,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.08550631914637082</v>
+        <v>-0.2202009922401731</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04947639769688</v>
+        <v>-0.051493980633772</v>
       </c>
       <c r="E26" t="n">
-        <v>10.93213446893787</v>
+        <v>23.33259424603175</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2214248885107483</v>
+        <v>-0.3260965826098948</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1033,16 +1036,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3754081282742845</v>
+        <v>-0.08550631914637082</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.045510053230136</v>
+        <v>-0.04947639769688</v>
       </c>
       <c r="E27" t="n">
-        <v>15.08165090180361</v>
+        <v>10.93213446893787</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2448770651315794</v>
+        <v>-0.2262043371047179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1053,16 +1056,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.07148240024267519</v>
+        <v>-0.3754081282742845</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.055171201718824</v>
+        <v>-0.045510053230136</v>
       </c>
       <c r="E28" t="n">
-        <v>16.92904969818914</v>
+        <v>15.08165090180361</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2857589380881437</v>
+        <v>-0.2461884104823245</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1073,16 +1076,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2617664148750727</v>
+        <v>-0.07148240024267519</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.03640085456890769</v>
+        <v>-0.055171201718824</v>
       </c>
       <c r="E29" t="n">
-        <v>12.43035917159763</v>
+        <v>16.92904969818914</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1988751348501606</v>
+        <v>-0.2881799007272784</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1093,16 +1096,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2616666666666666</v>
+        <v>-0.2617664148750727</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04727612466906154</v>
+        <v>-0.03640085456890769</v>
       </c>
       <c r="E30" t="n">
-        <v>19.97535638506876</v>
+        <v>12.43035917159763</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2897009767789011</v>
+        <v>-0.1996984775951859</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1113,16 +1116,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4144455058083997</v>
+        <v>-0.2616666666666666</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01262875871033885</v>
+        <v>-0.04727612466906154</v>
       </c>
       <c r="E31" t="n">
-        <v>16.13301785714286</v>
+        <v>19.97535638506876</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1659026942693763</v>
+        <v>-0.2884186438305159</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1133,16 +1136,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5906478827640712</v>
+        <v>0.4144455058083997</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03545287172016538</v>
+        <v>-0.01262875871033885</v>
       </c>
       <c r="E32" t="n">
-        <v>14.83600986193294</v>
+        <v>16.13301785714286</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2160715978411697</v>
+        <v>-0.1589328102155088</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1153,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3843651519772288</v>
+        <v>-0.5906478827640712</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0430877571429923</v>
+        <v>-0.03545287172016538</v>
       </c>
       <c r="E33" t="n">
-        <v>12.56693530571992</v>
+        <v>14.83600986193294</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2178082725443054</v>
+        <v>-0.2151981816526154</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1173,16 +1176,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.4292578137811157</v>
+        <v>-0.3843651519772288</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04622575925456154</v>
+        <v>-0.0430877571429923</v>
       </c>
       <c r="E34" t="n">
-        <v>16.53771377952756</v>
+        <v>12.56693530571992</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2587206456647448</v>
+        <v>-0.220100655755382</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1193,16 +1196,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1089534213487773</v>
+        <v>-0.4292578137811157</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.054982670884064</v>
+        <v>-0.04622575925456154</v>
       </c>
       <c r="E35" t="n">
-        <v>14.10949126984127</v>
+        <v>16.53771377952756</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2621416095572205</v>
+        <v>-0.2593044504063856</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1213,16 +1216,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2582737813291595</v>
+        <v>-0.1089534213487773</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.03148653541553462</v>
+        <v>-0.054982670884064</v>
       </c>
       <c r="E36" t="n">
-        <v>17.10704960629921</v>
+        <v>14.10949126984127</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2241238079533767</v>
+        <v>-0.2662494639192644</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1233,16 +1236,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1365553772352162</v>
+        <v>-0.2582737813291595</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.03742078764713076</v>
+        <v>-0.03148653541553462</v>
       </c>
       <c r="E37" t="n">
-        <v>18.41175196850393</v>
+        <v>17.10704960629921</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.250628380355413</v>
+        <v>-0.2209353184034279</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1253,16 +1256,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2412191692085671</v>
+        <v>-0.1365553772352162</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.03742078764713076</v>
       </c>
       <c r="E38" t="n">
-        <v>15.13503587174349</v>
+        <v>18.41175196850393</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2414149198212922</v>
+        <v>-0.2480171386427061</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1273,16 +1276,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1895873807997258</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E39" t="n">
-        <v>18.75787054108217</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2819578059773609</v>
+        <v>-0.2423535354001089</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1293,16 +1296,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.1895873807997258</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.04811620969233601</v>
       </c>
       <c r="E40" t="n">
-        <v>21.61644440078586</v>
+        <v>18.75787054108217</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3185319034120778</v>
+        <v>-0.2816178676906335</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1313,16 +1316,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.0866875906245986</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.05304844434981852</v>
       </c>
       <c r="E41" t="n">
-        <v>11.23250946745562</v>
+        <v>21.61644440078586</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1721555289072896</v>
+        <v>-0.3175827364454507</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1333,16 +1336,36 @@
         <v>45</v>
       </c>
       <c r="C42" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.172240927497935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E43" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F42" t="n">
-        <v>-0.2794539672978232</v>
+      <c r="F43" t="n">
+        <v>-0.2765477087078169</v>
       </c>
     </row>
   </sheetData>

--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Ticker</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>CVAL:IM</t>
+  </si>
+  <si>
+    <t>DANSKE:DC</t>
   </si>
   <si>
     <t>DEXB:BB</t>
@@ -503,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +548,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4253208490489581</v>
+        <v>-0.4179858740280367</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -565,7 +568,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3398611103027184</v>
+        <v>-0.3424711727375966</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -585,7 +588,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3943908129339996</v>
+        <v>-0.3913169381330988</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -605,7 +608,7 @@
         <v>14.48647374749499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2546739604819611</v>
+        <v>-0.257773091145483</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -625,7 +628,7 @@
         <v>53.60236401808765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5723588285358179</v>
+        <v>-0.5558292418413354</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -645,7 +648,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2693325938881664</v>
+        <v>-0.2656855843540423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -665,7 +668,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3090097405979922</v>
+        <v>-0.3083651769210138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -685,7 +688,7 @@
         <v>13.88146114398422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2240687983192979</v>
+        <v>-0.2255274068958057</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -705,7 +708,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4041795806494298</v>
+        <v>-0.40184644069241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -725,7 +728,7 @@
         <v>27.91789389763779</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3576701788092287</v>
+        <v>-0.3535685442239079</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -745,7 +748,7 @@
         <v>12.73460813492063</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.179429842738872</v>
+        <v>-0.178790869692005</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -765,7 +768,7 @@
         <v>19.97154339250493</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2676565732707725</v>
+        <v>-0.2656146529364058</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -785,7 +788,7 @@
         <v>34.26655333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.384978325312021</v>
+        <v>-0.3758555784086982</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -805,7 +808,7 @@
         <v>15.8624265060241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2711486308542244</v>
+        <v>-0.2739583332236392</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -825,7 +828,7 @@
         <v>16.07739842209073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2132959817566448</v>
+        <v>-0.2114878708770073</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -845,7 +848,7 @@
         <v>8.846112423625254</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2092410801310597</v>
+        <v>-0.2151990536418794</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -865,7 +868,7 @@
         <v>14.93403968253968</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2842499738877592</v>
+        <v>-0.2890875206709799</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -885,7 +888,7 @@
         <v>42.29407120315582</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4808875169855926</v>
+        <v>-0.4700605718159877</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -905,7 +908,7 @@
         <v>18.42660788954635</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2523225424062133</v>
+        <v>-0.2508450151876317</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -925,7 +928,7 @@
         <v>13.61614358974359</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2424206769666405</v>
+        <v>-0.2455642049709614</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -945,7 +948,7 @@
         <v>9.213624654832346</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1921471171579633</v>
+        <v>-0.1964012711436594</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -965,7 +968,7 @@
         <v>13.5694157790927</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1885852074762532</v>
+        <v>-0.187707068563518</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -976,16 +979,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5260390348410861</v>
+        <v>-0.4266130528920508</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06208038295445</v>
+        <v>-0.04106040831645</v>
       </c>
       <c r="E24" t="n">
-        <v>39.63771828455796</v>
+        <v>50.07238994082842</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4804197089851844</v>
+        <v>-0.4805183327954003</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -996,16 +999,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3503506768879466</v>
+        <v>-0.5260390348410861</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0503511423165</v>
+        <v>-0.06208038295445</v>
       </c>
       <c r="E25" t="n">
-        <v>38.92190276134122</v>
+        <v>39.63771828455796</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4410209771989878</v>
+        <v>-0.4725228864900324</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1016,16 +1019,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2202009922401731</v>
+        <v>-0.3503506768879466</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.051493980633772</v>
+        <v>-0.0503511423165</v>
       </c>
       <c r="E26" t="n">
-        <v>23.33259424603175</v>
+        <v>38.92190276134122</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.3260965826098948</v>
+        <v>-0.4309419054597313</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1036,16 +1039,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.08550631914637082</v>
+        <v>-0.2202009922401731</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04947639769688</v>
+        <v>-0.051493980633772</v>
       </c>
       <c r="E27" t="n">
-        <v>10.93213446893787</v>
+        <v>23.33259424603175</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2262043371047179</v>
+        <v>-0.3247246904913547</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1056,16 +1059,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3754081282742845</v>
+        <v>-0.08550631914637082</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.045510053230136</v>
+        <v>-0.04947639769688</v>
       </c>
       <c r="E28" t="n">
-        <v>15.08165090180361</v>
+        <v>10.93213446893787</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2461884104823245</v>
+        <v>-0.2311171412200528</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1076,16 +1079,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.07148240024267519</v>
+        <v>-0.3754081282742845</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.055171201718824</v>
+        <v>-0.045510053230136</v>
       </c>
       <c r="E29" t="n">
-        <v>16.92904969818914</v>
+        <v>15.08165090180361</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2881799007272784</v>
+        <v>-0.2479809741888377</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1096,16 +1099,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2617664148750727</v>
+        <v>-0.07148240024267519</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03640085456890769</v>
+        <v>-0.055171201718824</v>
       </c>
       <c r="E30" t="n">
-        <v>12.43035917159763</v>
+        <v>16.92904969818914</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1996984775951859</v>
+        <v>-0.2910876258136333</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1116,16 +1119,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2616666666666666</v>
+        <v>-0.2617664148750727</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04727612466906154</v>
+        <v>-0.03640085456890769</v>
       </c>
       <c r="E31" t="n">
-        <v>19.97535638506876</v>
+        <v>12.43035917159763</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2884186438305159</v>
+        <v>-0.200932931186369</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1136,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4144455058083997</v>
+        <v>-0.2616666666666666</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01262875871033885</v>
+        <v>-0.04727612466906154</v>
       </c>
       <c r="E32" t="n">
-        <v>16.13301785714286</v>
+        <v>19.97535638506876</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1589328102155088</v>
+        <v>-0.2879435724488579</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1156,16 +1159,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5906478827640712</v>
+        <v>0.4144455058083997</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03545287172016538</v>
+        <v>-0.01262875871033885</v>
       </c>
       <c r="E33" t="n">
-        <v>14.83600986193294</v>
+        <v>16.13301785714286</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2151981816526154</v>
+        <v>-0.152948840874495</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1176,16 +1179,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.3843651519772288</v>
+        <v>-0.5906478827640712</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0430877571429923</v>
+        <v>-0.03545287172016538</v>
       </c>
       <c r="E34" t="n">
-        <v>12.56693530571992</v>
+        <v>14.83600986193294</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.220100655755382</v>
+        <v>-0.2149198861554045</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1196,16 +1199,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.4292578137811157</v>
+        <v>-0.3843651519772288</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04622575925456154</v>
+        <v>-0.0430877571429923</v>
       </c>
       <c r="E35" t="n">
-        <v>16.53771377952756</v>
+        <v>12.56693530571992</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2593044504063856</v>
+        <v>-0.2227265092684139</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1216,16 +1219,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1089534213487773</v>
+        <v>-0.4292578137811157</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.054982670884064</v>
+        <v>-0.04622575925456154</v>
       </c>
       <c r="E36" t="n">
-        <v>14.10949126984127</v>
+        <v>16.53771377952756</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2662494639192644</v>
+        <v>-0.2604639977669041</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1236,16 +1239,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2582737813291595</v>
+        <v>-0.1089534213487773</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.03148653541553462</v>
+        <v>-0.054982670884064</v>
       </c>
       <c r="E37" t="n">
-        <v>17.10704960629921</v>
+        <v>14.10949126984127</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2209353184034279</v>
+        <v>-0.2706453941583238</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1256,16 +1259,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1365553772352162</v>
+        <v>-0.2582737813291595</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03742078764713076</v>
+        <v>-0.03148653541553462</v>
       </c>
       <c r="E38" t="n">
-        <v>18.41175196850393</v>
+        <v>17.10704960629921</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2480171386427061</v>
+        <v>-0.2185557997594145</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1276,16 +1279,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2412191692085671</v>
+        <v>-0.1365553772352162</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.03742078764713076</v>
       </c>
       <c r="E39" t="n">
-        <v>15.13503587174349</v>
+        <v>18.41175196850393</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2423535354001089</v>
+        <v>-0.2462303982401624</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1296,16 +1299,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1895873807997258</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E40" t="n">
-        <v>18.75787054108217</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2816178676906335</v>
+        <v>-0.2437963083659341</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1316,16 +1319,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.1895873807997258</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.04811620969233601</v>
       </c>
       <c r="E41" t="n">
-        <v>21.61644440078586</v>
+        <v>18.75787054108217</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3175827364454507</v>
+        <v>-0.2819873560640039</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1336,16 +1339,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.0866875906245986</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.05304844434981852</v>
       </c>
       <c r="E42" t="n">
-        <v>11.23250946745562</v>
+        <v>21.61644440078586</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.172240927497935</v>
+        <v>-0.317482475682552</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1356,16 +1359,36 @@
         <v>46</v>
       </c>
       <c r="C43" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.1727348815390622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E44" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F43" t="n">
-        <v>-0.2765477087078169</v>
+      <c r="F44" t="n">
+        <v>-0.2745603340646578</v>
       </c>
     </row>
   </sheetData>

--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Ticker</t>
   </si>
@@ -100,6 +100,9 @@
     <t>DANSKE:DC</t>
   </si>
   <si>
+    <t>DBK:GR</t>
+  </si>
+  <si>
     <t>DEXB:BB</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>SAN:SM</t>
+  </si>
+  <si>
+    <t>STAN:LN</t>
   </si>
   <si>
     <t>TATT:GA</t>
@@ -506,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +554,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4179858740280367</v>
+        <v>-0.4094996796504884</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -568,7 +574,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3424711727375966</v>
+        <v>-0.3298777044443579</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -588,7 +594,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3913169381330988</v>
+        <v>-0.3808901742213116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -608,7 +614,7 @@
         <v>14.48647374749499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.257773091145483</v>
+        <v>-0.2475517609933296</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -628,7 +634,7 @@
         <v>53.60236401808765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5558292418413354</v>
+        <v>-0.5489781403181613</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -648,7 +654,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2656855843540423</v>
+        <v>-0.2596270905265749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -668,7 +674,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3083651769210138</v>
+        <v>-0.298985445474629</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -688,7 +694,7 @@
         <v>13.88146114398422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2255274068958057</v>
+        <v>-0.2174044936819719</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -708,7 +714,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.40184644069241</v>
+        <v>-0.3906002926697368</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -728,7 +734,7 @@
         <v>27.91789389763779</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3535685442239079</v>
+        <v>-0.3450141418168929</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -748,7 +754,7 @@
         <v>12.73460813492063</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.178790869692005</v>
+        <v>-0.1735260475417902</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -768,7 +774,7 @@
         <v>19.97154339250493</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2656146529364058</v>
+        <v>-0.2585081233287905</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -788,7 +794,7 @@
         <v>34.26655333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3758555784086982</v>
+        <v>-0.3698783399425329</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -808,7 +814,7 @@
         <v>15.8624265060241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2739583332236392</v>
+        <v>-0.2634119365832088</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -828,7 +834,7 @@
         <v>16.07739842209073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2114878708770073</v>
+        <v>-0.2059487879071175</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -848,7 +854,7 @@
         <v>8.846112423625254</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2151990536418794</v>
+        <v>-0.2044602708478035</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -868,7 +874,7 @@
         <v>14.93403968253968</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2890875206709799</v>
+        <v>-0.2767333168829638</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -888,7 +894,7 @@
         <v>42.29407120315582</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4700605718159877</v>
+        <v>-0.4622041350070724</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -908,7 +914,7 @@
         <v>18.42660788954635</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2508450151876317</v>
+        <v>-0.2438386332855947</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -928,7 +934,7 @@
         <v>13.61614358974359</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2455642049709614</v>
+        <v>-0.2357018873979475</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -948,7 +954,7 @@
         <v>9.213624654832346</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1964012711436594</v>
+        <v>-0.1873748774195797</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -968,7 +974,7 @@
         <v>13.5694157790927</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.187707068563518</v>
+        <v>-0.1823153399381383</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -988,7 +994,7 @@
         <v>50.07238994082842</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4805183327954003</v>
+        <v>-0.4771304982063829</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -999,16 +1005,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5260390348410861</v>
+        <v>-0.4266130528920508</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.06208038295445</v>
+        <v>-0.04106040831645</v>
       </c>
       <c r="E25" t="n">
-        <v>39.63771828455796</v>
+        <v>50.07238994082842</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4725228864900324</v>
+        <v>-0.4771304982063829</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1019,16 +1025,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3503506768879466</v>
+        <v>-0.5260390348410861</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0503511423165</v>
+        <v>-0.06208038295445</v>
       </c>
       <c r="E26" t="n">
-        <v>38.92190276134122</v>
+        <v>39.63771828455796</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4309419054597313</v>
+        <v>-0.4626708578767848</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1039,16 +1045,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2202009922401731</v>
+        <v>-0.3503506768879466</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.051493980633772</v>
+        <v>-0.0503511423165</v>
       </c>
       <c r="E27" t="n">
-        <v>23.33259424603175</v>
+        <v>38.92190276134122</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3247246904913547</v>
+        <v>-0.4238394989109809</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1059,16 +1065,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.08550631914637082</v>
+        <v>-0.2202009922401731</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.04947639769688</v>
+        <v>-0.051493980633772</v>
       </c>
       <c r="E28" t="n">
-        <v>10.93213446893787</v>
+        <v>23.33259424603175</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2311171412200528</v>
+        <v>-0.3153008933005177</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1079,16 +1085,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3754081282742845</v>
+        <v>-0.08550631914637082</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.045510053230136</v>
+        <v>-0.04947639769688</v>
       </c>
       <c r="E29" t="n">
-        <v>15.08165090180361</v>
+        <v>10.93213446893787</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2479809741888377</v>
+        <v>-0.2205563028472607</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1099,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.07148240024267519</v>
+        <v>-0.3754081282742845</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.055171201718824</v>
+        <v>-0.045510053230136</v>
       </c>
       <c r="E30" t="n">
-        <v>16.92904969818914</v>
+        <v>15.08165090180361</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2910876258136333</v>
+        <v>-0.2389258424012173</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1119,16 +1125,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2617664148750727</v>
+        <v>-0.07148240024267519</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03640085456890769</v>
+        <v>-0.055171201718824</v>
       </c>
       <c r="E31" t="n">
-        <v>12.43035917159763</v>
+        <v>16.92904969818914</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.200932931186369</v>
+        <v>-0.2799326270605258</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1139,16 +1145,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2616666666666666</v>
+        <v>-0.2617664148750727</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.04727612466906154</v>
+        <v>-0.03640085456890769</v>
       </c>
       <c r="E32" t="n">
-        <v>19.97535638506876</v>
+        <v>12.43035917159763</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2879435724488579</v>
+        <v>-0.1937384383748944</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1159,16 +1165,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4144455058083997</v>
+        <v>-0.2616666666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01262875871033885</v>
+        <v>-0.04727612466906154</v>
       </c>
       <c r="E33" t="n">
-        <v>16.13301785714286</v>
+        <v>19.97535638506876</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.152948840874495</v>
+        <v>-0.2791020419833747</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1179,16 +1185,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5906478827640712</v>
+        <v>0.4144455058083997</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03545287172016538</v>
+        <v>-0.01262875871033885</v>
       </c>
       <c r="E34" t="n">
-        <v>14.83600986193294</v>
+        <v>16.13301785714286</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2149198861554045</v>
+        <v>-0.1520029163541025</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1199,16 +1205,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.3843651519772288</v>
+        <v>-0.5906478827640712</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0430877571429923</v>
+        <v>-0.03545287172016538</v>
       </c>
       <c r="E35" t="n">
-        <v>12.56693530571992</v>
+        <v>14.83600986193294</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2227265092684139</v>
+        <v>-0.2082706803761798</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1219,16 +1225,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.4292578137811157</v>
+        <v>-0.3843651519772288</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.04622575925456154</v>
+        <v>-0.0430877571429923</v>
       </c>
       <c r="E36" t="n">
-        <v>16.53771377952756</v>
+        <v>12.56693530571992</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2604639977669041</v>
+        <v>-0.2139288367254441</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1239,16 +1245,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1089534213487773</v>
+        <v>-0.4292578137811157</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.054982670884064</v>
+        <v>-0.04622575925456154</v>
       </c>
       <c r="E37" t="n">
-        <v>14.10949126984127</v>
+        <v>16.53771377952756</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2706453941583238</v>
+        <v>-0.2514263027763028</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1259,16 +1265,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2582737813291595</v>
+        <v>-0.1089534213487773</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03148653541553462</v>
+        <v>-0.054982670884064</v>
       </c>
       <c r="E38" t="n">
-        <v>17.10704960629921</v>
+        <v>14.10949126984127</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2185557997594145</v>
+        <v>-0.2591663520702999</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1279,16 +1285,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1365553772352162</v>
+        <v>-0.2582737813291595</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03742078764713076</v>
+        <v>-0.03148653541553462</v>
       </c>
       <c r="E39" t="n">
-        <v>18.41175196850393</v>
+        <v>17.10704960629921</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2462303982401624</v>
+        <v>-0.2131659607998228</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1299,16 +1305,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2412191692085671</v>
+        <v>-0.1365553772352162</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.03742078764713076</v>
       </c>
       <c r="E40" t="n">
-        <v>15.13503587174349</v>
+        <v>18.41175196850393</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2437963083659341</v>
+        <v>-0.2395730273472171</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1319,16 +1325,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1895873807997258</v>
+        <v>0.02668156672238804</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.05133396516204615</v>
       </c>
       <c r="E41" t="n">
-        <v>18.75787054108217</v>
+        <v>16.49434130434782</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2819873560640039</v>
+        <v>-0.2657905097799075</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1339,16 +1345,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E42" t="n">
-        <v>21.61644440078586</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.317482475682552</v>
+        <v>-0.2351030733614786</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1359,16 +1365,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.1895873807997258</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.04811620969233601</v>
       </c>
       <c r="E43" t="n">
-        <v>11.23250946745562</v>
+        <v>18.75787054108217</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1727348815390622</v>
+        <v>-0.2727825083466303</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1379,16 +1385,56 @@
         <v>47</v>
       </c>
       <c r="C44" t="n">
+        <v>-0.0866875906245986</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.05304844434981852</v>
+      </c>
+      <c r="E44" t="n">
+        <v>21.61644440078586</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.3074567828110922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1669212202115763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E46" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F44" t="n">
-        <v>-0.2745603340646578</v>
+      <c r="F46" t="n">
+        <v>-0.2671337706754081</v>
       </c>
     </row>
   </sheetData>

--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,7 +148,13 @@
     <t>SAN:SM</t>
   </si>
   <si>
+    <t>SHBA:SS</t>
+  </si>
+  <si>
     <t>STAN:LN</t>
+  </si>
+  <si>
+    <t>SWEDA:SS</t>
   </si>
   <si>
     <t>TATT:GA</t>
@@ -512,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +560,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4094996796504884</v>
+        <v>-0.4101823442101625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -574,7 +580,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3298777044443579</v>
+        <v>-0.3345496149012719</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -594,7 +600,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3808901742213116</v>
+        <v>-0.3833389876108447</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -614,7 +620,7 @@
         <v>14.48647374749499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2475517609933296</v>
+        <v>-0.2516095504267619</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -634,7 +640,7 @@
         <v>53.60236401808765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5489781403181613</v>
+        <v>-0.54665322760764</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -654,7 +660,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2596270905265749</v>
+        <v>-0.2605454384524422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -674,7 +680,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.298985445474629</v>
+        <v>-0.3017633086610127</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -694,7 +700,7 @@
         <v>13.88146114398422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2174044936819719</v>
+        <v>-0.2203569450349788</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -714,7 +720,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3906002926697368</v>
+        <v>-0.3935078679526492</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -734,7 +740,7 @@
         <v>27.91789389763779</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3450141418168929</v>
+        <v>-0.346594910452681</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -754,7 +760,7 @@
         <v>12.73460813492063</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1735260475417902</v>
+        <v>-0.1750101057686863</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -774,7 +780,7 @@
         <v>19.97154339250493</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2585081233287905</v>
+        <v>-0.260191556136777</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -794,7 +800,7 @@
         <v>34.26655333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3698783399425329</v>
+        <v>-0.3692865112036993</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -814,7 +820,7 @@
         <v>15.8624265060241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2634119365832088</v>
+        <v>-0.2674935821043</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -834,7 +840,7 @@
         <v>16.07739842209073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2059487879071175</v>
+        <v>-0.2072021997308781</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -854,7 +860,7 @@
         <v>8.846112423625254</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2044602708478035</v>
+        <v>-0.209456045882004</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -874,7 +880,7 @@
         <v>14.93403968253968</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2767333168829638</v>
+        <v>-0.2819338322505601</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -894,7 +900,7 @@
         <v>42.29407120315582</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4622041350070724</v>
+        <v>-0.4617418064207569</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -914,7 +920,7 @@
         <v>18.42660788954635</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2438386332855947</v>
+        <v>-0.2456435608522311</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -934,7 +940,7 @@
         <v>13.61614358974359</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2357018873979475</v>
+        <v>-0.239658701414372</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -954,7 +960,7 @@
         <v>9.213624654832346</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1873748774195797</v>
+        <v>-0.1913696696054695</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -974,7 +980,7 @@
         <v>13.5694157790927</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1823153399381383</v>
+        <v>-0.1837745033222087</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -994,7 +1000,7 @@
         <v>50.07238994082842</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4771304982063829</v>
+        <v>-0.4732722650770205</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1014,7 +1020,7 @@
         <v>50.07238994082842</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4771304982063829</v>
+        <v>-0.4732722650770205</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1034,7 +1040,7 @@
         <v>39.63771828455796</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4626708578767848</v>
+        <v>-0.463631139757992</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1054,7 +1060,7 @@
         <v>38.92190276134122</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4238394989109809</v>
+        <v>-0.4233425769747673</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1074,7 +1080,7 @@
         <v>23.33259424603175</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3153008933005177</v>
+        <v>-0.3178954323261023</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1094,7 +1100,7 @@
         <v>10.93213446893787</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2205563028472607</v>
+        <v>-0.2252126937627172</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1114,7 +1120,7 @@
         <v>15.08165090180361</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2389258424012173</v>
+        <v>-0.2422622871409808</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1134,7 +1140,7 @@
         <v>16.92904969818914</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2799326270605258</v>
+        <v>-0.284232428942823</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1154,7 +1160,7 @@
         <v>12.43035917159763</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1937384383748944</v>
+        <v>-0.1963378613049788</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1174,7 +1180,7 @@
         <v>19.97535638506876</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2791020419833747</v>
+        <v>-0.2817564396637944</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1194,7 +1200,7 @@
         <v>16.13301785714286</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1520029163541025</v>
+        <v>-0.1506782893582075</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1214,7 +1220,7 @@
         <v>14.83600986193294</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2082706803761798</v>
+        <v>-0.2102883128175245</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1234,7 +1240,7 @@
         <v>12.56693530571992</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2139288367254441</v>
+        <v>-0.2174101606536323</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1254,7 +1260,7 @@
         <v>16.53771377952756</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2514263027763028</v>
+        <v>-0.2545856333247649</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1274,7 +1280,7 @@
         <v>14.10949126984127</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2591663520702999</v>
+        <v>-0.2639716453347028</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1294,7 +1300,7 @@
         <v>17.10704960629921</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2131659607998228</v>
+        <v>-0.2142174707162869</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1314,7 +1320,7 @@
         <v>18.41175196850393</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2395730273472171</v>
+        <v>-0.2411842559052668</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1325,16 +1331,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02668156672238804</v>
+        <v>-0.2036123525136468</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05133396516204615</v>
+        <v>-0.04025773231056539</v>
       </c>
       <c r="E41" t="n">
-        <v>16.49434130434782</v>
+        <v>27.24594552683897</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2657905097799075</v>
+        <v>-0.3114231033482796</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1345,16 +1351,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2412191692085671</v>
+        <v>0.02668156672238804</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.05133396516204615</v>
       </c>
       <c r="E42" t="n">
-        <v>15.13503587174349</v>
+        <v>16.49434130434782</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2351030733614786</v>
+        <v>-0.26965135625736</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1365,16 +1371,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1895873807997258</v>
+        <v>-0.4941173793323169</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.05108273985414231</v>
       </c>
       <c r="E43" t="n">
-        <v>18.75787054108217</v>
+        <v>23.63621829025844</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2727825083466303</v>
+        <v>-0.3187788649053216</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1385,16 +1391,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E44" t="n">
-        <v>21.61644440078586</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.3074567828110922</v>
+        <v>-0.238230761305913</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1405,16 +1411,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.1895873807997258</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.04811620969233601</v>
       </c>
       <c r="E45" t="n">
-        <v>11.23250946745562</v>
+        <v>18.75787054108217</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1669212202115763</v>
+        <v>-0.2757802532430716</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1425,16 +1431,56 @@
         <v>49</v>
       </c>
       <c r="C46" t="n">
+        <v>-0.0866875906245986</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.05304844434981852</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21.61644440078586</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.3105855594316145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1688852086045431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E48" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F46" t="n">
-        <v>-0.2671337706754081</v>
+      <c r="F48" t="n">
+        <v>-0.268932734609356</v>
       </c>
     </row>
   </sheetData>

--- a/Output/systemic_expected_shortfall.xlsx
+++ b/Output/systemic_expected_shortfall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Ticker</t>
   </si>
@@ -121,12 +121,21 @@
     <t>HB:CY</t>
   </si>
   <si>
+    <t>INGA:NA</t>
+  </si>
+  <si>
     <t>ISP:IM</t>
   </si>
   <si>
     <t>KBC:BB</t>
   </si>
   <si>
+    <t>KN:FP</t>
+  </si>
+  <si>
+    <t>MB:IM</t>
+  </si>
+  <si>
     <t>OBS:AV</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
   </si>
   <si>
     <t>UBI:IM</t>
+  </si>
+  <si>
+    <t>UBSG:VX</t>
   </si>
   <si>
     <t>UCG:IM</t>
@@ -518,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +572,7 @@
         <v>35.39969292604501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4101823442101625</v>
+        <v>-0.4287961074250452</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -580,7 +592,7 @@
         <v>20.69877495029822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3345496149012719</v>
+        <v>-0.3614422202279227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -600,7 +612,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3833389876108447</v>
+        <v>-0.4058879449070363</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -620,7 +632,7 @@
         <v>14.48647374749499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2516095504267619</v>
+        <v>-0.2733835364814824</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -640,7 +652,7 @@
         <v>53.60236401808765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.54665322760764</v>
+        <v>-0.5622544655626909</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -660,7 +672,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2605454384524422</v>
+        <v>-0.2737482402550625</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -680,7 +692,7 @@
         <v>21.52289980392157</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3017633086610127</v>
+        <v>-0.3219332175091108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -700,7 +712,7 @@
         <v>13.88146114398422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2203569450349788</v>
+        <v>-0.2377151130027215</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -720,7 +732,7 @@
         <v>29.48630905511811</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3935078679526492</v>
+        <v>-0.4177756835381097</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -740,7 +752,7 @@
         <v>27.91789389763779</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.346594910452681</v>
+        <v>-0.3651801603424648</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -760,7 +772,7 @@
         <v>12.73460813492063</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1750101057686863</v>
+        <v>-0.1863464264365326</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -780,7 +792,7 @@
         <v>19.97154339250493</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.260191556136777</v>
+        <v>-0.2755572883266291</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -800,7 +812,7 @@
         <v>34.26655333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3692865112036993</v>
+        <v>-0.382611137888663</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -820,7 +832,7 @@
         <v>15.8624265060241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2674935821043</v>
+        <v>-0.2899810322176452</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -840,7 +852,7 @@
         <v>16.07739842209073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2072021997308781</v>
+        <v>-0.2191905169104187</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -860,7 +872,7 @@
         <v>8.846112423625254</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.209456045882004</v>
+        <v>-0.232186152589421</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -880,7 +892,7 @@
         <v>14.93403968253968</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2819338322505601</v>
+        <v>-0.3081923066646998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -900,7 +912,7 @@
         <v>42.29407120315582</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4617418064207569</v>
+        <v>-0.4791926230619068</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -920,7 +932,7 @@
         <v>18.42660788954635</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2456435608522311</v>
+        <v>-0.2607637754138692</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -940,7 +952,7 @@
         <v>13.61614358974359</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.239658701414372</v>
+        <v>-0.2606596097340968</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -960,7 +972,7 @@
         <v>9.213624654832346</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1913696696054695</v>
+        <v>-0.2105160509800506</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -980,7 +992,7 @@
         <v>13.5694157790927</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1837745033222087</v>
+        <v>-0.1953961877702616</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1000,7 +1012,7 @@
         <v>50.07238994082842</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4732722650770205</v>
+        <v>-0.4815274942582501</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1020,7 +1032,7 @@
         <v>50.07238994082842</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4732722650770205</v>
+        <v>-0.4815274942582501</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1040,7 +1052,7 @@
         <v>39.63771828455796</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.463631139757992</v>
+        <v>-0.4852072736853285</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1060,7 +1072,7 @@
         <v>38.92190276134122</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4233425769747673</v>
+        <v>-0.4391342897366394</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1080,7 +1092,7 @@
         <v>23.33259424603175</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3178954323261023</v>
+        <v>-0.3381992854831744</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1100,7 +1112,7 @@
         <v>10.93213446893787</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2252126937627172</v>
+        <v>-0.2476173618556218</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1120,7 +1132,7 @@
         <v>15.08165090180361</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2422622871409808</v>
+        <v>-0.2616035377962224</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1140,7 +1152,7 @@
         <v>16.92904969818914</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.284232428942823</v>
+        <v>-0.3080210338084751</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1151,16 +1163,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2617664148750727</v>
+        <v>-0.4191088584613057</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03640085456890769</v>
+        <v>-0.04428317151481923</v>
       </c>
       <c r="E32" t="n">
-        <v>12.43035917159763</v>
+        <v>35.37075745098039</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1963378613049788</v>
+        <v>-0.3938842000793916</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1171,16 +1183,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2616666666666666</v>
+        <v>-0.2617664148750727</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04727612466906154</v>
+        <v>-0.03640085456890769</v>
       </c>
       <c r="E33" t="n">
-        <v>19.97535638506876</v>
+        <v>12.43035917159763</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2817564396637944</v>
+        <v>-0.2117151594633639</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1191,16 +1203,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4144455058083997</v>
+        <v>-0.2616666666666666</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01262875871033885</v>
+        <v>-0.04727612466906154</v>
       </c>
       <c r="E34" t="n">
-        <v>16.13301785714286</v>
+        <v>19.97535638506876</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1506782893582075</v>
+        <v>-0.3007618473407445</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1211,16 +1223,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5906478827640712</v>
+        <v>-0.7896148822761128</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.03545287172016538</v>
+        <v>-0.07353613137647308</v>
       </c>
       <c r="E35" t="n">
-        <v>14.83600986193294</v>
+        <v>29.43807352941176</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2102883128175245</v>
+        <v>-0.4568303198735544</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1231,16 +1243,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3843651519772288</v>
+        <v>-0.4350756575918481</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0430877571429923</v>
+        <v>-0.03427882197054615</v>
       </c>
       <c r="E36" t="n">
-        <v>12.56693530571992</v>
+        <v>7.857882840236686</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2174101606536323</v>
+        <v>-0.1734675385883206</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1251,16 +1263,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4292578137811157</v>
+        <v>0.4144455058083997</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.04622575925456154</v>
+        <v>-0.01262875871033885</v>
       </c>
       <c r="E37" t="n">
-        <v>16.53771377952756</v>
+        <v>16.13301785714286</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2545856333247649</v>
+        <v>-0.1530326105523706</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1271,16 +1283,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1089534213487773</v>
+        <v>-0.5906478827640712</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.054982670884064</v>
+        <v>-0.03545287172016538</v>
       </c>
       <c r="E38" t="n">
-        <v>14.10949126984127</v>
+        <v>14.83600986193294</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2639716453347028</v>
+        <v>-0.2245769122564752</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1291,16 +1303,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2582737813291595</v>
+        <v>-0.3843651519772288</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03148653541553462</v>
+        <v>-0.0430877571429923</v>
       </c>
       <c r="E39" t="n">
-        <v>17.10704960629921</v>
+        <v>12.56693530571992</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2142174707162869</v>
+        <v>-0.2361536522372058</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1311,16 +1323,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1365553772352162</v>
+        <v>-0.4292578137811157</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03742078764713076</v>
+        <v>-0.04622575925456154</v>
       </c>
       <c r="E40" t="n">
-        <v>18.41175196850393</v>
+        <v>16.53771377952756</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2411842559052668</v>
+        <v>-0.2739237010878941</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1331,16 +1343,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2036123525136468</v>
+        <v>-0.1089534213487773</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.04025773231056539</v>
+        <v>-0.054982670884064</v>
       </c>
       <c r="E41" t="n">
-        <v>27.24594552683897</v>
+        <v>14.10949126984127</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3114231033482796</v>
+        <v>-0.2883753431867617</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1351,16 +1363,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02668156672238804</v>
+        <v>-0.2582737813291595</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.05133396516204615</v>
+        <v>-0.03148653541553462</v>
       </c>
       <c r="E42" t="n">
-        <v>16.49434130434782</v>
+        <v>17.10704960629921</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.26965135625736</v>
+        <v>-0.2259163273585682</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1371,16 +1383,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.4941173793323169</v>
+        <v>-0.1365553772352162</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.05108273985414231</v>
+        <v>-0.03742078764713076</v>
       </c>
       <c r="E43" t="n">
-        <v>23.63621829025844</v>
+        <v>18.41175196850393</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.3187788649053216</v>
+        <v>-0.2555719939139535</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1391,16 +1403,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2412191692085671</v>
+        <v>-0.2036123525136468</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.044046127502016</v>
+        <v>-0.04025773231056539</v>
       </c>
       <c r="E44" t="n">
-        <v>15.13503587174349</v>
+        <v>27.24594552683897</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.238230761305913</v>
+        <v>-0.3250259717067462</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1411,16 +1423,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1895873807997258</v>
+        <v>0.02668156672238804</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.04811620969233601</v>
+        <v>-0.05133396516204615</v>
       </c>
       <c r="E45" t="n">
-        <v>18.75787054108217</v>
+        <v>16.49434130434782</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2757802532430716</v>
+        <v>-0.291598144684083</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1431,16 +1443,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0866875906245986</v>
+        <v>-0.4941173793323169</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.05304844434981852</v>
+        <v>-0.05108273985414231</v>
       </c>
       <c r="E46" t="n">
-        <v>21.61644440078586</v>
+        <v>23.63621829025844</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.3105855594316145</v>
+        <v>-0.3387970202515972</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1451,16 +1463,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3308792089134847</v>
+        <v>-0.2412191692085671</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03005704829461154</v>
+        <v>-0.044046127502016</v>
       </c>
       <c r="E47" t="n">
-        <v>11.23250946745562</v>
+        <v>15.13503587174349</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1688852086045431</v>
+        <v>-0.256814069466384</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1471,16 +1483,96 @@
         <v>51</v>
       </c>
       <c r="C48" t="n">
+        <v>-0.1895873807997258</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.04811620969233601</v>
+      </c>
+      <c r="E48" t="n">
+        <v>18.75787054108217</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.2955198843445697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.0866875906245986</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.05304844434981852</v>
+      </c>
+      <c r="E49" t="n">
+        <v>21.61644440078586</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.3321126755919259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.3308792089134847</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.03005704829461154</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.23250946745562</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.1813384026018952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.6856575387454452</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.06210767271118846</v>
+      </c>
+      <c r="E51" t="n">
+        <v>56.67020598802396</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5999739834518825</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="n">
         <v>-0.4323689394607625</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D52" t="n">
         <v>-0.04173697644233847</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E52" t="n">
         <v>20.52535009861933</v>
       </c>
-      <c r="F48" t="n">
-        <v>-0.268932734609356</v>
+      <c r="F52" t="n">
+        <v>-0.2849825174678569</v>
       </c>
     </row>
   </sheetData>
